--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H2">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N2">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q2">
-        <v>99.13509103131358</v>
+        <v>109.6231506714327</v>
       </c>
       <c r="R2">
-        <v>99.13509103131358</v>
+        <v>986.6083560428939</v>
       </c>
       <c r="S2">
-        <v>0.005291634733389844</v>
+        <v>0.005562768907656114</v>
       </c>
       <c r="T2">
-        <v>0.005291634733389844</v>
+        <v>0.005562768907656114</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H3">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q3">
-        <v>2104.465730191373</v>
+        <v>2158.991284119103</v>
       </c>
       <c r="R3">
-        <v>2104.465730191373</v>
+        <v>19430.92155707192</v>
       </c>
       <c r="S3">
-        <v>0.1123322108978724</v>
+        <v>0.1095568729199829</v>
       </c>
       <c r="T3">
-        <v>0.1123322108978724</v>
+        <v>0.1095568729199829</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H4">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N4">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q4">
-        <v>680.8902052132036</v>
+        <v>784.7049855488696</v>
       </c>
       <c r="R4">
-        <v>680.8902052132036</v>
+        <v>7062.344869939826</v>
       </c>
       <c r="S4">
-        <v>0.03634457004122837</v>
+        <v>0.03981944022369289</v>
       </c>
       <c r="T4">
-        <v>0.03634457004122837</v>
+        <v>0.0398194402236929</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H5">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I5">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J5">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N5">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q5">
-        <v>37.33744261328499</v>
+        <v>41.95351337154757</v>
       </c>
       <c r="R5">
-        <v>37.33744261328499</v>
+        <v>377.581620343928</v>
       </c>
       <c r="S5">
-        <v>0.00199299870644191</v>
+        <v>0.00212890888759136</v>
       </c>
       <c r="T5">
-        <v>0.00199299870644191</v>
+        <v>0.00212890888759136</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H6">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I6">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J6">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N6">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q6">
-        <v>792.6090309215117</v>
+        <v>826.2604126278726</v>
       </c>
       <c r="R6">
-        <v>792.6090309215117</v>
+        <v>7436.343713650853</v>
       </c>
       <c r="S6">
-        <v>0.04230789959831605</v>
+        <v>0.04192814843253011</v>
       </c>
       <c r="T6">
-        <v>0.04230789959831605</v>
+        <v>0.04192814843253011</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H7">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N7">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O7">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P7">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q7">
-        <v>256.4450054831303</v>
+        <v>300.3118492973916</v>
       </c>
       <c r="R7">
-        <v>256.4450054831303</v>
+        <v>2702.806643676524</v>
       </c>
       <c r="S7">
-        <v>0.01368852627361027</v>
+        <v>0.01523916624946614</v>
       </c>
       <c r="T7">
-        <v>0.01368852627361027</v>
+        <v>0.01523916624946615</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H8">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I8">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J8">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N8">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O8">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P8">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q8">
-        <v>203.160892946207</v>
+        <v>219.6243500523049</v>
       </c>
       <c r="R8">
-        <v>203.160892946207</v>
+        <v>1976.619150470744</v>
       </c>
       <c r="S8">
-        <v>0.01084432592331075</v>
+        <v>0.01114472169749012</v>
       </c>
       <c r="T8">
-        <v>0.01084432592331075</v>
+        <v>0.01114472169749012</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H9">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I9">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J9">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N9">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q9">
-        <v>4312.752754575302</v>
+        <v>4325.428111115356</v>
       </c>
       <c r="R9">
-        <v>4312.752754575302</v>
+        <v>38928.8530000382</v>
       </c>
       <c r="S9">
-        <v>0.230206196768658</v>
+        <v>0.219491565982554</v>
       </c>
       <c r="T9">
-        <v>0.230206196768658</v>
+        <v>0.219491565982554</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H10">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I10">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J10">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N10">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O10">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P10">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q10">
-        <v>1395.371312522894</v>
+        <v>1572.116121260917</v>
       </c>
       <c r="R10">
-        <v>1395.371312522894</v>
+        <v>14149.04509134825</v>
       </c>
       <c r="S10">
-        <v>0.07448215587949192</v>
+        <v>0.07977620260876292</v>
       </c>
       <c r="T10">
-        <v>0.07448215587949192</v>
+        <v>0.07977620260876295</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H11">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I11">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J11">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N11">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O11">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P11">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q11">
-        <v>285.5519609285322</v>
+        <v>311.958245539385</v>
       </c>
       <c r="R11">
-        <v>285.5519609285322</v>
+        <v>2807.624209854464</v>
       </c>
       <c r="S11">
-        <v>0.015242197882884</v>
+        <v>0.0158301564783037</v>
       </c>
       <c r="T11">
-        <v>0.015242197882884</v>
+        <v>0.0158301564783037</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H12">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I12">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J12">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N12">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O12">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P12">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q12">
-        <v>6061.771969052072</v>
+        <v>6143.913297541577</v>
       </c>
       <c r="R12">
-        <v>6061.771969052072</v>
+        <v>55295.21967787419</v>
       </c>
       <c r="S12">
-        <v>0.3235653769379492</v>
+        <v>0.3117696367379236</v>
       </c>
       <c r="T12">
-        <v>0.3235653769379492</v>
+        <v>0.3117696367379236</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H13">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I13">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J13">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N13">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O13">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P13">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q13">
-        <v>1961.258432841374</v>
+        <v>2233.061073856057</v>
       </c>
       <c r="R13">
-        <v>1961.258432841374</v>
+        <v>20097.54966470451</v>
       </c>
       <c r="S13">
-        <v>0.1046880891156794</v>
+        <v>0.1133155052966451</v>
       </c>
       <c r="T13">
-        <v>0.1046880891156794</v>
+        <v>0.1133155052966451</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H14">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I14">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J14">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N14">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O14">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P14">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q14">
-        <v>18.68102234348682</v>
+        <v>24.36494420122244</v>
       </c>
       <c r="R14">
-        <v>18.68102234348682</v>
+        <v>219.284497811002</v>
       </c>
       <c r="S14">
-        <v>0.0009971559581944812</v>
+        <v>0.001236386230546981</v>
       </c>
       <c r="T14">
-        <v>0.0009971559581944812</v>
+        <v>0.001236386230546981</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H15">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I15">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J15">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N15">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O15">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P15">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q15">
-        <v>396.5656450992663</v>
+        <v>479.8594261001826</v>
       </c>
       <c r="R15">
-        <v>396.5656450992663</v>
+        <v>4318.734834901643</v>
       </c>
       <c r="S15">
-        <v>0.02116788838186052</v>
+        <v>0.02435021324607324</v>
       </c>
       <c r="T15">
-        <v>0.02116788838186052</v>
+        <v>0.02435021324607324</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H16">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I16">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J16">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N16">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O16">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P16">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q16">
-        <v>128.306990034754</v>
+        <v>174.4092654718934</v>
       </c>
       <c r="R16">
-        <v>128.306990034754</v>
+        <v>1569.683389247041</v>
       </c>
       <c r="S16">
-        <v>0.00684877290111278</v>
+        <v>0.008850306100780768</v>
       </c>
       <c r="T16">
-        <v>0.00684877290111278</v>
+        <v>0.00885030610078077</v>
       </c>
     </row>
   </sheetData>
